--- a/소요부품명세서_메인보드.xlsx
+++ b/소요부품명세서_메인보드.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>품번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,27 +171,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://eleparts.co.kr/EPX9N8H7</t>
-  </si>
-  <si>
-    <t>12.1k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분압저항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://eleparts.co.kr/EPX9N8CR</t>
-  </si>
-  <si>
-    <t>http://eleparts.co.kr/EPX6YGPF</t>
-  </si>
-  <si>
     <t>2012저항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,11 +187,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOQ10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISL21010CFH315Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eleparts.co.kr/EPXC8BVL</t>
+  </si>
+  <si>
+    <t>1.5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 전압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.5k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eleparts.co.kr/EPXG938D</t>
+  </si>
+  <si>
+    <t>332k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eleparts.co.kr/EPXG8YVB</t>
+  </si>
+  <si>
+    <t>MOQ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eleparts.co.kr/EPXG8YXY</t>
+  </si>
+  <si>
+    <t>22.1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://eleparts.co.kr/EPX7JNPM</t>
+  </si>
+  <si>
+    <t>Rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012캐패시터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전압센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류/전압센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/8189</t>
+  </si>
+  <si>
+    <t>MOQ100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스마트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68nF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,24 +669,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.08203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.08203125" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
@@ -607,7 +701,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -619,7 +713,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,15 +742,18 @@
         <v>6</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -686,11 +783,14 @@
       <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8">
         <v>2</v>
@@ -714,17 +814,20 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I14" si="0">F8*(G8+H8)</f>
+        <f t="shared" ref="I8:I20" si="0">F8*(G8+H8)</f>
         <v>15480</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9">
         <v>3</v>
@@ -754,11 +857,14 @@
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10">
         <v>4</v>
@@ -788,11 +894,14 @@
       <c r="J10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11">
         <v>5</v>
@@ -823,13 +932,16 @@
         <v>26</v>
       </c>
       <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
         <v>28</v>
       </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12">
         <v>6</v>
@@ -841,29 +953,35 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>640</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13">
         <v>7</v>
@@ -872,77 +990,323 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>497</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>2000</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>775</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>7750</v>
+        <v>280</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
       </c>
       <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="L14" t="s">
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1900</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1">
+        <v>64</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
+      </c>
+      <c r="F18" s="1">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>96</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:K2"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A7:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
-    <hyperlink ref="K10" r:id="rId2"/>
+    <hyperlink ref="M7" r:id="rId1"/>
+    <hyperlink ref="M10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
